--- a/data/Subset 1/HILLARY LEWIS-WOLFSEN pt 2.xlsx
+++ b/data/Subset 1/HILLARY LEWIS-WOLFSEN pt 2.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CAROLYN DOBSON</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CAROLYN DOBSON</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Student A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Student A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Student A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Student B</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Student A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Student A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
